--- a/Testplans/ahb_plans.xlsx
+++ b/Testplans/ahb_plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24401"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="590" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAFBE2CA-C829-41A6-A30E-9E54D1AA8D5B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="111">
   <si>
     <t>AHB TEST PLANS</t>
   </si>
@@ -244,36 +244,6 @@
     <t>read opeartion(hburst 8- word lines)</t>
   </si>
   <si>
-    <t>HSIZE(16-words lines)</t>
-  </si>
-  <si>
-    <t>Write opeartion(hburst 16- words line)</t>
-  </si>
-  <si>
-    <t>addr, addr+64, addr+128, addr+256, ...</t>
-  </si>
-  <si>
-    <t>3'b110      16-words lines</t>
-  </si>
-  <si>
-    <t>read opeartion(hburst 16- word lines)</t>
-  </si>
-  <si>
-    <t>HSIZE(32-words lines)</t>
-  </si>
-  <si>
-    <t>Write opeartion(hburst 32- words line)</t>
-  </si>
-  <si>
-    <t>addr, addr+128, addr+256, addr+512, ...</t>
-  </si>
-  <si>
-    <t>3'b111      32-words lines</t>
-  </si>
-  <si>
-    <t>read opeartion(hburst 32- word lines)</t>
-  </si>
-  <si>
     <t>HSIZE(byte)(WRAP4)</t>
   </si>
   <si>
@@ -316,12 +286,6 @@
     <t>addr, addr+32, addr+64, addr+128</t>
   </si>
   <si>
-    <t>addr, addr+64, addr+128, addr+256</t>
-  </si>
-  <si>
-    <t>addr, addr+128, addr+256, addr+512</t>
-  </si>
-  <si>
     <t>HSIZE(byte)(wrap8)</t>
   </si>
   <si>
@@ -355,12 +319,6 @@
     <t>addr, addr+32, addr+64, addr+128, ..., 2048</t>
   </si>
   <si>
-    <t>addr, addr+64, addr+128, addr+256, ..., 4096</t>
-  </si>
-  <si>
-    <t>addr, addr+128, addr+256, addr+512, ..., 8812</t>
-  </si>
-  <si>
     <t>HSIZE(byte)(wrap16)</t>
   </si>
   <si>
@@ -392,12 +350,6 @@
   </si>
   <si>
     <t>addr, addr+32, addr+64, addr+128, ..., 1127936</t>
-  </si>
-  <si>
-    <t>addr, addr+64, addr+128, addr+256, ..., 2255872</t>
-  </si>
-  <si>
-    <t>addr, addr+128, addr+256, addr+512, ..., 4511744</t>
   </si>
   <si>
     <t>AHB DESCRIPTION</t>
@@ -412,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -473,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -482,11 +434,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +474,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1" descr="This pdf contains the test plans for AMBA AHB protocol" title="AHB test plans">
+        <xdr:cNvPr id="2" name="Rectangle 1" descr="This pdf contains the test plans for AMBA AHB protocol">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E17BE27-637F-46DF-96A1-D26EFCA23F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E17BE27-637F-46DF-96A1-D26EFCA23F48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -622,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -674,7 +627,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -868,18 +821,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L295"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283:L283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1938,72 +1891,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2012,13 +1912,13 @@
         <v>74</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>37</v>
@@ -2030,29 +1930,49 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2065,103 +1985,149 @@
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="K60" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>37</v>
@@ -2181,22 +2147,22 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>37</v>
@@ -2229,7 +2195,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2244,22 +2210,22 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>37</v>
@@ -2279,22 +2245,22 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>37</v>
@@ -2340,7 +2306,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2355,22 +2321,22 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>37</v>
@@ -2390,22 +2356,22 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>37</v>
@@ -2438,7 +2404,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2453,22 +2419,22 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>37</v>
@@ -2488,22 +2454,22 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>37</v>
@@ -2534,302 +2500,209 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K82" s="3" t="s">
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="3">
+    <row r="85" spans="1:11">
+      <c r="A85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="3">
+    <row r="89" spans="1:11">
+      <c r="A89" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="3">
         <v>0</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="3">
-        <v>1</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3">
-        <v>1</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3">
-        <v>1</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="3"/>
+      <c r="A92" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2842,293 +2715,384 @@
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="A93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="3">
-        <v>1</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="G102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3" t="s">
+    <row r="103" spans="1:11">
+      <c r="A103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D103" s="3">
         <v>0</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E103" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="G103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="3">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="K103" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K100" s="3" t="s">
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" s="3">
+    <row r="107" spans="1:11">
+      <c r="A107" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="3">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="K107" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3140,122 +3104,29 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
-      <c r="I109" s="3">
-        <v>1</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="3">
-        <v>1</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-    </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>37</v>
@@ -3275,22 +3146,22 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D114" s="3">
         <v>0</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>37</v>
@@ -3322,7 +3193,9 @@
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="3"/>
+      <c r="A116" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3335,38 +3208,58 @@
       <c r="K116" s="3"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>37</v>
@@ -3378,46 +3271,24 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3">
-        <v>1</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -3434,7 +3305,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3449,22 +3320,22 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>37</v>
@@ -3484,22 +3355,22 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D123" s="3">
         <v>0</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>37</v>
@@ -3532,7 +3403,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3547,22 +3418,22 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>37</v>
@@ -3582,22 +3453,22 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D127" s="3">
         <v>0</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>37</v>
@@ -3629,9 +3500,7 @@
       <c r="K128" s="3"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3644,98 +3513,171 @@
       <c r="K129" s="3"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3">
-        <v>1</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" s="3">
         <v>0</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H131" s="3">
-        <v>1</v>
-      </c>
-      <c r="I131" s="3">
-        <v>1</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="E132" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1</v>
+      </c>
+      <c r="J132" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K131" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="K132" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1" t="s">
-        <v>98</v>
+      <c r="A135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>37</v>
@@ -3747,157 +3689,99 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D137" s="3">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
-      <c r="I137" s="3">
-        <v>1</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D140" s="3">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H140" s="3">
-        <v>1</v>
-      </c>
-      <c r="I140" s="3">
-        <v>1</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>38</v>
+      <c r="A140" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="3">
         <v>0</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H141" s="3">
-        <v>1</v>
-      </c>
-      <c r="I141" s="3">
-        <v>1</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="E142" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1</v>
+      </c>
+      <c r="J142" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K141" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+      <c r="K142" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -3914,7 +3798,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3929,22 +3813,22 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>37</v>
@@ -3964,22 +3848,22 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>37</v>
@@ -4011,9 +3895,7 @@
       <c r="K147" s="3"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4026,87 +3908,89 @@
       <c r="K148" s="3"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B149" s="3">
-        <v>1</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H149" s="3">
-        <v>1</v>
-      </c>
-      <c r="I149" s="3">
-        <v>1</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A149" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D151" s="3">
         <v>0</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H150" s="3">
-        <v>1</v>
-      </c>
-      <c r="I150" s="3">
-        <v>1</v>
-      </c>
-      <c r="J150" s="3" t="s">
+      <c r="E151" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K150" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4123,7 +4007,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4138,22 +4022,22 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>37</v>
@@ -4173,22 +4057,22 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D155" s="3">
         <v>0</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>37</v>
@@ -4220,9 +4104,7 @@
       <c r="K156" s="3"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4235,92 +4117,92 @@
       <c r="K157" s="3"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B158" s="3">
-        <v>1</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D158" s="3">
-        <v>1</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="I158" s="3">
-        <v>1</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A158" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="3">
+        <v>1</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="3">
         <v>0</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3">
-        <v>1</v>
-      </c>
-      <c r="J159" s="3" t="s">
+      <c r="E160" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1</v>
+      </c>
+      <c r="J160" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="K160" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -4333,92 +4215,92 @@
       <c r="K161" s="3"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B162" s="3">
-        <v>1</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D162" s="3">
-        <v>1</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3">
-        <v>1</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A162" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D164" s="3">
         <v>0</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="I163" s="3">
-        <v>1</v>
-      </c>
-      <c r="J163" s="3" t="s">
+      <c r="E164" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+      <c r="I164" s="3">
+        <v>1</v>
+      </c>
+      <c r="J164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K163" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="K164" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -4430,251 +4312,209 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B166" s="3">
-        <v>1</v>
-      </c>
-      <c r="C166" s="3" t="s">
+    <row r="168" spans="1:11">
+      <c r="A168" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-      <c r="I166" s="3">
-        <v>1</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K166" s="3" t="s">
+      <c r="G169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H169" s="3">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" s="3">
-        <v>1</v>
-      </c>
-      <c r="C167" s="3" t="s">
+    <row r="170" spans="1:11">
+      <c r="A170" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D167" s="3">
+      <c r="G170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D174" s="3">
         <v>0</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="3">
-        <v>1</v>
-      </c>
-      <c r="J167" s="3" t="s">
+      <c r="E174" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="3">
+        <v>1</v>
+      </c>
+      <c r="J174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K167" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B171" s="3">
-        <v>1</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D171" s="3">
-        <v>1</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H171" s="3">
-        <v>1</v>
-      </c>
-      <c r="I171" s="3">
-        <v>1</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B172" s="3">
-        <v>1</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D172" s="3">
-        <v>0</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H172" s="3">
-        <v>1</v>
-      </c>
-      <c r="I172" s="3">
-        <v>1</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B175" s="3">
-        <v>1</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3">
-        <v>1</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B176" s="3">
-        <v>1</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D176" s="3">
-        <v>0</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3">
-        <v>1</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="3"/>
+      <c r="A177" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4687,203 +4527,203 @@
       <c r="K177" s="3"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3">
+        <v>1</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3">
+        <v>1</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B180" s="3">
-        <v>1</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D180" s="3">
-        <v>1</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H180" s="3">
-        <v>1</v>
-      </c>
-      <c r="I180" s="3">
-        <v>1</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K180" s="3" t="s">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
-      <c r="A181" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B181" s="3">
-        <v>1</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D181" s="3">
+    <row r="183" spans="1:11">
+      <c r="A183" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183" s="3">
         <v>0</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="3">
-        <v>1</v>
-      </c>
-      <c r="J181" s="3" t="s">
+      <c r="E183" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3">
+        <v>1</v>
+      </c>
+      <c r="J183" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K181" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="K183" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B184" s="3">
-        <v>1</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D184" s="3">
-        <v>1</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="3">
-        <v>1</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B185" s="3">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H185" s="3">
-        <v>1</v>
-      </c>
-      <c r="I185" s="3">
-        <v>1</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="3"/>
+      <c r="A186" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -4896,228 +4736,190 @@
       <c r="K186" s="3"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="I187" s="3">
+        <v>1</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
+      <c r="A188" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="3">
+        <v>1</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B189" s="3">
-        <v>1</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D189" s="3">
-        <v>1</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H189" s="3">
-        <v>1</v>
-      </c>
-      <c r="I189" s="3">
-        <v>1</v>
-      </c>
-      <c r="J189" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1</v>
+      </c>
+      <c r="I191" s="3">
+        <v>1</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K191" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
-      <c r="A190" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D190" s="3">
+    <row r="192" spans="1:11">
+      <c r="A192" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D192" s="3">
         <v>0</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H190" s="3">
-        <v>1</v>
-      </c>
-      <c r="I190" s="3">
-        <v>1</v>
-      </c>
-      <c r="J190" s="3" t="s">
+      <c r="E192" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1</v>
+      </c>
+      <c r="I192" s="3">
+        <v>1</v>
+      </c>
+      <c r="J192" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K190" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
+      <c r="K192" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B193" s="3">
-        <v>1</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D193" s="3">
-        <v>1</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H193" s="3">
-        <v>1</v>
-      </c>
-      <c r="I193" s="3">
-        <v>1</v>
-      </c>
-      <c r="J193" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K193" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B194" s="3">
-        <v>1</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D194" s="3">
-        <v>0</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H194" s="3">
-        <v>1</v>
-      </c>
-      <c r="I194" s="3">
-        <v>1</v>
-      </c>
-      <c r="J194" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3" t="s">
@@ -5127,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D197" s="3">
         <v>1</v>
@@ -5136,7 +4938,7 @@
         <v>75</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>37</v>
@@ -5156,13 +4958,13 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
@@ -5171,7 +4973,7 @@
         <v>75</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>37</v>
@@ -5204,7 +5006,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5219,22 +5021,22 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D201" s="3">
         <v>1</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>37</v>
@@ -5254,22 +5056,22 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B202" s="3">
         <v>1</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D202" s="3">
         <v>0</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>37</v>
@@ -5287,29 +5089,65 @@
         <v>45</v>
       </c>
     </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+    </row>
     <row r="205" spans="1:11">
       <c r="A205" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B206" s="3">
         <v>1</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D206" s="3">
         <v>1</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>37</v>
@@ -5329,22 +5167,22 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D207" s="3">
         <v>0</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>37</v>
@@ -5377,7 +5215,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -5392,22 +5230,22 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B210" s="3">
         <v>1</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D210" s="3">
         <v>1</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>37</v>
@@ -5427,22 +5265,22 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B211" s="3">
         <v>1</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>37</v>
@@ -5488,7 +5326,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -5503,22 +5341,22 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D215" s="3">
         <v>1</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>37</v>
@@ -5538,22 +5376,22 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B216" s="3">
         <v>1</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D216" s="3">
         <v>0</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>37</v>
@@ -5586,7 +5424,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -5601,22 +5439,22 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D219" s="3">
         <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>37</v>
@@ -5636,22 +5474,22 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B220" s="3">
         <v>1</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D220" s="3">
         <v>0</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>37</v>
@@ -5683,1308 +5521,259 @@
       <c r="K221" s="3"/>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B224" s="3">
-        <v>1</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D224" s="3">
-        <v>1</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H224" s="3">
-        <v>1</v>
-      </c>
-      <c r="I224" s="3">
-        <v>1</v>
-      </c>
-      <c r="J224" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K224" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B225" s="3">
-        <v>1</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D225" s="3">
-        <v>0</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H225" s="3">
-        <v>1</v>
-      </c>
-      <c r="I225" s="3">
-        <v>1</v>
-      </c>
-      <c r="J225" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K225" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B228" s="3">
-        <v>1</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D228" s="3">
-        <v>1</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H228" s="3">
-        <v>1</v>
-      </c>
-      <c r="I228" s="3">
-        <v>1</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K228" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B229" s="3">
-        <v>1</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D229" s="3">
-        <v>0</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H229" s="3">
-        <v>1</v>
-      </c>
-      <c r="I229" s="3">
-        <v>1</v>
-      </c>
-      <c r="J229" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K229" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="A231" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="A232" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B232" s="3">
-        <v>1</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D232" s="3">
-        <v>1</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H232" s="3">
-        <v>1</v>
-      </c>
-      <c r="I232" s="3">
-        <v>1</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K232" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="A233" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B233" s="3">
-        <v>1</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D233" s="3">
-        <v>0</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H233" s="3">
-        <v>1</v>
-      </c>
-      <c r="I233" s="3">
-        <v>1</v>
-      </c>
-      <c r="J233" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K233" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="A235" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D236" s="3">
-        <v>1</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H236" s="3">
-        <v>1</v>
-      </c>
-      <c r="I236" s="3">
-        <v>1</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K236" s="3" t="s">
-        <v>38</v>
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="235" spans="1:11" ht="26.25">
+      <c r="A235" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B237" s="3">
-        <v>1</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D237" s="3">
-        <v>0</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H237" s="3">
-        <v>1</v>
-      </c>
-      <c r="I237" s="3">
-        <v>1</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K237" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A237" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B241" s="3">
-        <v>1</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D241" s="3">
-        <v>1</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H241" s="3">
-        <v>1</v>
-      </c>
-      <c r="I241" s="3">
-        <v>1</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B242" s="3">
-        <v>1</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D242" s="3">
-        <v>0</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H242" s="3">
-        <v>1</v>
-      </c>
-      <c r="I242" s="3">
-        <v>1</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K242" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="A244" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B245" s="3">
-        <v>1</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D245" s="3">
-        <v>1</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H245" s="3">
-        <v>1</v>
-      </c>
-      <c r="I245" s="3">
-        <v>1</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K245" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B246" s="3">
-        <v>1</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D246" s="3">
-        <v>0</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H246" s="3">
-        <v>1</v>
-      </c>
-      <c r="I246" s="3">
-        <v>1</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B250" s="3">
-        <v>1</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D250" s="3">
-        <v>1</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H250" s="3">
-        <v>1</v>
-      </c>
-      <c r="I250" s="3">
-        <v>1</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K250" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B251" s="3">
-        <v>1</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D251" s="3">
-        <v>0</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H251" s="3">
-        <v>1</v>
-      </c>
-      <c r="I251" s="3">
-        <v>1</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K251" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-    </row>
-    <row r="254" spans="1:11">
-      <c r="A254" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B254" s="3">
-        <v>1</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D254" s="3">
-        <v>1</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H254" s="3">
-        <v>1</v>
-      </c>
-      <c r="I254" s="3">
-        <v>1</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K254" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D255" s="3">
-        <v>0</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H255" s="3">
-        <v>1</v>
-      </c>
-      <c r="I255" s="3">
-        <v>1</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-    </row>
-    <row r="257" spans="1:11">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-    </row>
-    <row r="258" spans="1:11">
-      <c r="A258" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B259" s="3">
-        <v>1</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D259" s="3">
-        <v>1</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H259" s="3">
-        <v>1</v>
-      </c>
-      <c r="I259" s="3">
-        <v>1</v>
-      </c>
-      <c r="J259" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K259" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B260" s="3">
-        <v>1</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D260" s="3">
-        <v>0</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H260" s="3">
-        <v>1</v>
-      </c>
-      <c r="I260" s="3">
-        <v>1</v>
-      </c>
-      <c r="J260" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K260" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-    </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-    </row>
-    <row r="263" spans="1:11">
-      <c r="A263" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B263" s="3">
-        <v>1</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D263" s="3">
-        <v>1</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H263" s="3">
-        <v>1</v>
-      </c>
-      <c r="I263" s="3">
-        <v>1</v>
-      </c>
-      <c r="J263" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
-      <c r="A264" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D264" s="3">
-        <v>0</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H264" s="3">
-        <v>1</v>
-      </c>
-      <c r="I264" s="3">
-        <v>1</v>
-      </c>
-      <c r="J264" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K264" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-    </row>
-    <row r="266" spans="1:11">
-      <c r="A266" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
-    </row>
-    <row r="267" spans="1:11">
-      <c r="A267" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B267" s="3">
-        <v>1</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D267" s="3">
-        <v>1</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H267" s="3">
-        <v>1</v>
-      </c>
-      <c r="I267" s="3">
-        <v>1</v>
-      </c>
-      <c r="J267" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K267" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B268" s="3">
-        <v>1</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D268" s="3">
-        <v>0</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H268" s="3">
-        <v>1</v>
-      </c>
-      <c r="I268" s="3">
-        <v>1</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-    </row>
-    <row r="270" spans="1:11">
-      <c r="A270" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-    </row>
-    <row r="271" spans="1:11">
-      <c r="A271" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B271" s="3">
-        <v>1</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D271" s="3">
-        <v>1</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H271" s="3">
-        <v>1</v>
-      </c>
-      <c r="I271" s="3">
-        <v>1</v>
-      </c>
-      <c r="J271" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
-      <c r="A272" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B272" s="3">
-        <v>1</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D272" s="3">
-        <v>0</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H272" s="3">
-        <v>1</v>
-      </c>
-      <c r="I272" s="3">
-        <v>1</v>
-      </c>
-      <c r="J272" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="26.25">
-      <c r="A279" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
-      <c r="A281" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-    </row>
-    <row r="282" spans="1:12">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-    </row>
-    <row r="283" spans="1:12">
-      <c r="A283" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
-      <c r="L283" s="6"/>
-    </row>
-    <row r="284" spans="1:12">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-    </row>
-    <row r="285" spans="1:12">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-    </row>
-    <row r="286" spans="1:12">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-    </row>
-    <row r="287" spans="1:12">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-    </row>
-    <row r="288" spans="1:12">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="257" spans="12:12">
+      <c r="L257" s="9"/>
+    </row>
+    <row r="258" spans="12:12">
+      <c r="L258" s="9"/>
+    </row>
+    <row r="259" spans="12:12">
+      <c r="L259" s="9"/>
+    </row>
+    <row r="260" spans="12:12">
+      <c r="L260" s="9"/>
+    </row>
+    <row r="261" spans="12:12">
+      <c r="L261" s="9"/>
+    </row>
+    <row r="262" spans="12:12">
+      <c r="L262" s="9"/>
+    </row>
+    <row r="263" spans="12:12">
+      <c r="L263" s="9"/>
+    </row>
+    <row r="264" spans="12:12">
+      <c r="L264" s="9"/>
+    </row>
+    <row r="274" spans="12:12">
+      <c r="L274" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A237:E237"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
